--- a/MonitoringSystem/wwwroot/data/cu/plan/cu_plan_template.xlsx
+++ b/MonitoringSystem/wwwroot/data/cu/plan/cu_plan_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KP\repos\testXLS\testXLS\wwwroot\data\cu\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mghaz\Magang Panasonic\WebMon_8.5_Pub - Revisi Pak Awan\MonitoringSystem\wwwroot\data\cu\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D1E8F8-1AD0-4A03-B3E5-2949DB838839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="160">
   <si>
     <t>CU-YN5SKJ</t>
   </si>
@@ -464,9 +465,6 @@
     <t>CU-PN24AKH</t>
   </si>
   <si>
-    <t>Tanggal</t>
-  </si>
-  <si>
     <t>CU-XN9XTKJ</t>
   </si>
   <si>
@@ -512,7 +510,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -827,11 +825,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF205"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149:AF205"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,106 +838,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>146</v>
+      <c r="A1" t="s">
+        <v>13</v>
       </c>
       <c r="B1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H1" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I1" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J1" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K1" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L1" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M1" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N1" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O1" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P1" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q1" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R1" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S1" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T1" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U1" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V1" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="W1" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="X1" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Y1" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z1" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA1" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AB1" s="1">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AC1" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AD1" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AE1" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AF1" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1037,7 +1035,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -1135,7 +1133,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1233,7 +1231,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -1331,7 +1329,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -1429,7 +1427,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -1527,7 +1525,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -1625,7 +1623,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -1723,7 +1721,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1821,7 +1819,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -1919,7 +1917,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2017,7 +2015,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -2115,7 +2113,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -2213,7 +2211,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -2311,7 +2309,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -2409,7 +2407,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -2507,7 +2505,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -2605,7 +2603,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -2703,7 +2701,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -2801,7 +2799,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -2899,7 +2897,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -2997,7 +2995,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -3095,7 +3093,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -3193,7 +3191,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -3291,7 +3289,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -3389,7 +3387,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -3487,7 +3485,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -3585,7 +3583,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -3683,7 +3681,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -3781,7 +3779,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -3879,7 +3877,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -3977,7 +3975,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -4075,7 +4073,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -4173,7 +4171,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -4271,7 +4269,7 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -4369,7 +4367,7 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -4467,7 +4465,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -4565,7 +4563,7 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -4663,7 +4661,7 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -4761,7 +4759,7 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
@@ -4859,7 +4857,7 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -4957,7 +4955,7 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -5055,7 +5053,7 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -5153,7 +5151,7 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -5251,7 +5249,7 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
@@ -5349,7 +5347,7 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -5447,7 +5445,7 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -5545,7 +5543,7 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -5643,7 +5641,7 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -5741,7 +5739,7 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -5839,7 +5837,7 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -5937,7 +5935,7 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -6035,7 +6033,7 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -6133,7 +6131,7 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -6231,7 +6229,7 @@
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -6329,7 +6327,7 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -6427,7 +6425,7 @@
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -6525,7 +6523,7 @@
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -6623,7 +6621,7 @@
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -6721,7 +6719,7 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -6819,7 +6817,7 @@
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
@@ -6917,7 +6915,7 @@
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -7015,7 +7013,7 @@
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -7113,7 +7111,7 @@
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -7211,7 +7209,7 @@
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -7309,7 +7307,7 @@
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -7407,7 +7405,7 @@
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
@@ -7505,7 +7503,7 @@
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -7603,7 +7601,7 @@
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -7701,7 +7699,7 @@
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
@@ -8191,7 +8189,7 @@
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
@@ -8289,7 +8287,7 @@
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -8387,7 +8385,7 @@
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -8485,7 +8483,7 @@
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B79" s="1">
         <v>0</v>
@@ -8583,7 +8581,7 @@
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -8681,7 +8679,7 @@
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -8779,7 +8777,7 @@
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
@@ -8877,7 +8875,7 @@
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -8975,7 +8973,7 @@
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -9073,7 +9071,7 @@
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -9171,7 +9169,7 @@
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -9269,7 +9267,7 @@
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -9367,7 +9365,7 @@
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -9465,7 +9463,7 @@
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -9563,7 +9561,7 @@
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -9661,7 +9659,7 @@
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -9759,7 +9757,7 @@
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -9857,7 +9855,7 @@
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>
@@ -10641,7 +10639,7 @@
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
@@ -10739,7 +10737,7 @@
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B102" s="1">
         <v>0</v>
@@ -10837,7 +10835,7 @@
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B103" s="1">
         <v>0</v>
@@ -10935,7 +10933,7 @@
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B104" s="1">
         <v>0</v>
@@ -11033,7 +11031,7 @@
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B105" s="1">
         <v>0</v>
@@ -11131,7 +11129,7 @@
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B106" s="1">
         <v>0</v>
@@ -11229,7 +11227,7 @@
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
@@ -11327,7 +11325,7 @@
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B108" s="1">
         <v>0</v>
@@ -11425,7 +11423,7 @@
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B109" s="1">
         <v>0</v>
@@ -11523,7 +11521,7 @@
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
@@ -11621,7 +11619,7 @@
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B111" s="1">
         <v>0</v>
@@ -11719,7 +11717,7 @@
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B112" s="1">
         <v>0</v>
@@ -11817,7 +11815,7 @@
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B113" s="1">
         <v>0</v>
@@ -11915,7 +11913,7 @@
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B114" s="1">
         <v>0</v>
@@ -12013,7 +12011,7 @@
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B115" s="1">
         <v>0</v>
@@ -12111,7 +12109,7 @@
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B116" s="1">
         <v>0</v>
@@ -12209,7 +12207,7 @@
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B117" s="1">
         <v>0</v>
@@ -12307,7 +12305,7 @@
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B118" s="1">
         <v>0</v>
@@ -12405,7 +12403,7 @@
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
@@ -12503,7 +12501,7 @@
     </row>
     <row r="120" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B120" s="1">
         <v>0</v>
@@ -12601,7 +12599,7 @@
     </row>
     <row r="121" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B121" s="1">
         <v>0</v>
@@ -12699,7 +12697,7 @@
     </row>
     <row r="122" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B122" s="1">
         <v>0</v>
@@ -12797,7 +12795,7 @@
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B123" s="1">
         <v>0</v>
@@ -12895,7 +12893,7 @@
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B124" s="1">
         <v>0</v>
@@ -12993,7 +12991,7 @@
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B125" s="1">
         <v>0</v>
@@ -13091,7 +13089,7 @@
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B126" s="1">
         <v>0</v>
@@ -13189,7 +13187,7 @@
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B127" s="1">
         <v>0</v>
@@ -13287,7 +13285,7 @@
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B128" s="1">
         <v>0</v>
@@ -13385,7 +13383,7 @@
     </row>
     <row r="129" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
@@ -13483,7 +13481,7 @@
     </row>
     <row r="130" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B130" s="1">
         <v>0</v>
@@ -13581,7 +13579,7 @@
     </row>
     <row r="131" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B131" s="1">
         <v>0</v>
@@ -13679,7 +13677,7 @@
     </row>
     <row r="132" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B132" s="1">
         <v>0</v>
@@ -13777,7 +13775,7 @@
     </row>
     <row r="133" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B133" s="1">
         <v>0</v>
@@ -13875,7 +13873,7 @@
     </row>
     <row r="134" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B134" s="1">
         <v>0</v>
@@ -13973,7 +13971,7 @@
     </row>
     <row r="135" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B135" s="1">
         <v>0</v>
@@ -14071,7 +14069,7 @@
     </row>
     <row r="136" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B136" s="1">
         <v>0</v>
@@ -14169,7 +14167,7 @@
     </row>
     <row r="137" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B137" s="1">
         <v>0</v>
@@ -14267,7 +14265,7 @@
     </row>
     <row r="138" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B138" s="1">
         <v>0</v>
@@ -14365,7 +14363,7 @@
     </row>
     <row r="139" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B139" s="1">
         <v>0</v>
@@ -14463,7 +14461,7 @@
     </row>
     <row r="140" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B140" s="1">
         <v>0</v>
@@ -14561,7 +14559,7 @@
     </row>
     <row r="141" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B141" s="1">
         <v>0</v>
@@ -14659,7 +14657,7 @@
     </row>
     <row r="142" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B142" s="1">
         <v>0</v>
@@ -14757,7 +14755,7 @@
     </row>
     <row r="143" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B143" s="1">
         <v>0</v>
@@ -14855,7 +14853,7 @@
     </row>
     <row r="144" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B144" s="1">
         <v>0</v>
@@ -14953,7 +14951,7 @@
     </row>
     <row r="145" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B145" s="1">
         <v>0</v>
@@ -15051,7 +15049,7 @@
     </row>
     <row r="146" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B146" s="1">
         <v>0</v>
@@ -15149,7 +15147,7 @@
     </row>
     <row r="147" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B147" s="1">
         <v>0</v>
@@ -15247,7 +15245,7 @@
     </row>
     <row r="148" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B148" s="1">
         <v>0</v>
@@ -15345,7 +15343,7 @@
     </row>
     <row r="149" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="B149" s="1">
         <v>0</v>
@@ -15443,7 +15441,7 @@
     </row>
     <row r="150" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B150" s="1">
         <v>0</v>
@@ -15541,7 +15539,7 @@
     </row>
     <row r="151" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B151" s="1">
         <v>0</v>
@@ -15639,7 +15637,7 @@
     </row>
     <row r="152" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B152" s="1">
         <v>0</v>
@@ -15737,7 +15735,7 @@
     </row>
     <row r="153" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B153" s="1">
         <v>0</v>
@@ -15835,7 +15833,7 @@
     </row>
     <row r="154" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B154" s="1">
         <v>0</v>
@@ -15933,7 +15931,7 @@
     </row>
     <row r="155" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B155" s="1">
         <v>0</v>
@@ -16031,7 +16029,7 @@
     </row>
     <row r="156" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B156" s="1">
         <v>0</v>
@@ -16129,7 +16127,7 @@
     </row>
     <row r="157" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B157" s="1">
         <v>0</v>
@@ -16227,7 +16225,7 @@
     </row>
     <row r="158" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B158" s="1">
         <v>0</v>
@@ -16325,7 +16323,7 @@
     </row>
     <row r="159" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B159" s="1">
         <v>0</v>
@@ -16423,7 +16421,7 @@
     </row>
     <row r="160" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B160" s="1">
         <v>0</v>
@@ -16521,7 +16519,7 @@
     </row>
     <row r="161" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B161" s="1">
         <v>0</v>
@@ -16619,7 +16617,7 @@
     </row>
     <row r="162" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B162" s="1">
         <v>0</v>
@@ -16717,7 +16715,7 @@
     </row>
     <row r="163" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B163" s="1">
         <v>0</v>
@@ -16815,7 +16813,7 @@
     </row>
     <row r="164" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B164" s="1">
         <v>0</v>
@@ -16913,7 +16911,7 @@
     </row>
     <row r="165" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B165" s="1">
         <v>0</v>
@@ -17011,7 +17009,7 @@
     </row>
     <row r="166" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B166" s="1">
         <v>0</v>
@@ -17109,7 +17107,7 @@
     </row>
     <row r="167" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B167" s="1">
         <v>0</v>
@@ -17207,7 +17205,7 @@
     </row>
     <row r="168" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B168" s="1">
         <v>0</v>
@@ -17305,7 +17303,7 @@
     </row>
     <row r="169" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B169" s="1">
         <v>0</v>
@@ -17403,7 +17401,7 @@
     </row>
     <row r="170" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B170" s="1">
         <v>0</v>
@@ -17501,7 +17499,7 @@
     </row>
     <row r="171" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B171" s="1">
         <v>0</v>
@@ -17599,7 +17597,7 @@
     </row>
     <row r="172" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B172" s="1">
         <v>0</v>
@@ -17697,7 +17695,7 @@
     </row>
     <row r="173" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B173" s="1">
         <v>0</v>
@@ -17795,7 +17793,7 @@
     </row>
     <row r="174" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B174" s="1">
         <v>0</v>
@@ -17893,7 +17891,7 @@
     </row>
     <row r="175" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B175" s="1">
         <v>0</v>
@@ -17991,7 +17989,7 @@
     </row>
     <row r="176" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B176" s="1">
         <v>0</v>
@@ -18089,7 +18087,7 @@
     </row>
     <row r="177" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B177" s="1">
         <v>0</v>
@@ -18187,7 +18185,7 @@
     </row>
     <row r="178" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B178" s="1">
         <v>0</v>
@@ -18285,7 +18283,7 @@
     </row>
     <row r="179" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B179" s="1">
         <v>0</v>
@@ -18383,7 +18381,7 @@
     </row>
     <row r="180" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B180" s="1">
         <v>0</v>
@@ -18481,7 +18479,7 @@
     </row>
     <row r="181" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B181" s="1">
         <v>0</v>
@@ -18579,7 +18577,7 @@
     </row>
     <row r="182" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B182" s="1">
         <v>0</v>
@@ -18677,7 +18675,7 @@
     </row>
     <row r="183" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B183" s="1">
         <v>0</v>
@@ -18775,7 +18773,7 @@
     </row>
     <row r="184" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B184" s="1">
         <v>0</v>
@@ -18873,7 +18871,7 @@
     </row>
     <row r="185" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B185" s="1">
         <v>0</v>
@@ -18971,7 +18969,7 @@
     </row>
     <row r="186" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B186" s="1">
         <v>0</v>
@@ -19069,7 +19067,7 @@
     </row>
     <row r="187" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B187" s="1">
         <v>0</v>
@@ -19167,7 +19165,7 @@
     </row>
     <row r="188" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B188" s="1">
         <v>0</v>
@@ -19265,7 +19263,7 @@
     </row>
     <row r="189" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B189" s="1">
         <v>0</v>
@@ -19363,7 +19361,7 @@
     </row>
     <row r="190" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B190" s="1">
         <v>0</v>
@@ -19461,7 +19459,7 @@
     </row>
     <row r="191" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B191" s="1">
         <v>0</v>
@@ -19559,7 +19557,7 @@
     </row>
     <row r="192" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B192" s="1">
         <v>0</v>
@@ -19657,7 +19655,7 @@
     </row>
     <row r="193" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B193" s="1">
         <v>0</v>
@@ -19755,7 +19753,7 @@
     </row>
     <row r="194" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B194" s="1">
         <v>0</v>
@@ -19853,7 +19851,7 @@
     </row>
     <row r="195" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B195" s="1">
         <v>0</v>
@@ -19951,7 +19949,7 @@
     </row>
     <row r="196" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B196" s="1">
         <v>0</v>
@@ -20049,7 +20047,7 @@
     </row>
     <row r="197" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B197" s="1">
         <v>0</v>
@@ -20147,7 +20145,7 @@
     </row>
     <row r="198" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B198" s="1">
         <v>0</v>
@@ -20245,7 +20243,7 @@
     </row>
     <row r="199" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B199" s="1">
         <v>0</v>
@@ -20343,7 +20341,7 @@
     </row>
     <row r="200" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B200" s="1">
         <v>0</v>
@@ -20441,7 +20439,7 @@
     </row>
     <row r="201" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B201" s="1">
         <v>0</v>
@@ -20539,7 +20537,7 @@
     </row>
     <row r="202" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B202" s="1">
         <v>0</v>
@@ -20637,7 +20635,7 @@
     </row>
     <row r="203" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B203" s="1">
         <v>0</v>
@@ -20735,7 +20733,7 @@
     </row>
     <row r="204" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B204" s="1">
         <v>0</v>
@@ -20828,104 +20826,6 @@
         <v>0</v>
       </c>
       <c r="AF204" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>145</v>
-      </c>
-      <c r="B205" s="1">
-        <v>0</v>
-      </c>
-      <c r="C205" s="1">
-        <v>0</v>
-      </c>
-      <c r="D205" s="1">
-        <v>0</v>
-      </c>
-      <c r="E205" s="1">
-        <v>0</v>
-      </c>
-      <c r="F205" s="1">
-        <v>0</v>
-      </c>
-      <c r="G205" s="1">
-        <v>0</v>
-      </c>
-      <c r="H205" s="1">
-        <v>0</v>
-      </c>
-      <c r="I205" s="1">
-        <v>0</v>
-      </c>
-      <c r="J205" s="1">
-        <v>0</v>
-      </c>
-      <c r="K205" s="1">
-        <v>0</v>
-      </c>
-      <c r="L205" s="1">
-        <v>0</v>
-      </c>
-      <c r="M205" s="1">
-        <v>0</v>
-      </c>
-      <c r="N205" s="1">
-        <v>0</v>
-      </c>
-      <c r="O205" s="1">
-        <v>0</v>
-      </c>
-      <c r="P205" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q205" s="1">
-        <v>0</v>
-      </c>
-      <c r="R205" s="1">
-        <v>0</v>
-      </c>
-      <c r="S205" s="1">
-        <v>0</v>
-      </c>
-      <c r="T205" s="1">
-        <v>0</v>
-      </c>
-      <c r="U205" s="1">
-        <v>0</v>
-      </c>
-      <c r="V205" s="1">
-        <v>0</v>
-      </c>
-      <c r="W205" s="1">
-        <v>0</v>
-      </c>
-      <c r="X205" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y205" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z205" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA205" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB205" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC205" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD205" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE205" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF205" s="1">
         <v>0</v>
       </c>
     </row>
